--- a/CountryData/Peru/Peru_Workbook.xlsx
+++ b/CountryData/Peru/Peru_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Peru/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Peru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E287C7A6-029D-4B4F-831C-25DF20EF2549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C00534-FBDD-45F5-839E-B6F9C1438D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peru_Popup" sheetId="1" r:id="rId1"/>
@@ -89,6 +89,98 @@
   </si>
   <si>
     <r>
+      <t>Beyond Extraction: Economic Opportunities in Mining Communities (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Completed, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2016-2020) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020 Report, Committee for the Monitoring, Follow-up and Verification of the Agreements of the Dialogue Table to Analyze the Mining Problems of the Department of Moquegua (Ministerial Resolution No. 161-2019-PCM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <t>Social Trust Funds Regulation</t>
+  </si>
+  <si>
+    <t>—2020 Project Report, Beyond Extraction: Economic Opportunities in Mining Communities</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">June 2016 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kuczynski Wants Peru to become Metals Refining Hub: Finance Minister</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Inter-American Development Bank (2020) – </t>
     </r>
     <r>
@@ -105,6 +197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Korinek and Ramdoo (2017) – </t>
     </r>
     <r>
@@ -121,102 +220,177 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Social Trust </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> Funds Regulation</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oswaldo Molina (2018) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Innovation in an Unfavorable Context: Local Mining Suppliers in Peru</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>April 2021 – </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Southern Peru Mining Cluster will Expand its Horizons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish, Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Oswaldo Molina (2018) – Innovation in an Unfavorable Context: Local Mining Suppliers in Peru </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> (Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Beyond Extraction: Economic Opportunities in Mining Communities (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Completed, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2016-2020) </t>
-    </r>
-  </si>
-  <si>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Southern Peru Mining Cluster will Expand its Horizons </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (Spanish, Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>April 2021 –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Offer of Peruvian Mining Providers and Services Generates Interest from Australians</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 2020 – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supreme Decree that approves the Regulation of Mining Procedures Nº 020-2020-EM</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Law Nº 27506</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decree 042-2003-EM </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alan Fairlie Reinoso (2011) – </t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -226,42 +400,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Law Nº 27506</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Decree 042-2003-EM</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Productive Chains of Export Activities in Latin America The case of Mining in Peru</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -272,206 +415,24 @@
   </si>
   <si>
     <r>
-      <t>April 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Offer of Peruvian Mining Providers and Services Generates Interest from Australians</t>
-    </r>
-    <r>
-      <rPr>
+      <t>—2019 Technical Report, Mining Cluster in the Peruvian South Prospects for Regional Development</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>November 2020 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Supreme Decree that approves the Regulation of Mining Procedures Nº 020-2020-EM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>June 2016 –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kuczynski Wants Peru to become Metals Refining Hub: Finance Minister</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Alan Fairlie Reinoso (2011) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Productive Chains of Export Activities in Latin America The case of Mining in Peru </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2020 Project Report, Beyond Extraction: Economic Opportunities in Mining Communities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2019 Technical Report, Mining Cluster in the Peruvian South Prospects for Regional Development</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2020 Report, Committee for the Monitoring, Follow-up and Verification of the Agreements of the Dialogue Table to Analyze the Mining Problems of the Department of Moquegua (Ministerial Resolution No. 161-2019-PCM)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,13 +564,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,6 +666,13 @@
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1106,24 +1067,27 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1132,22 +1096,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1158,14 +1116,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1173,18 +1125,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1542,11 +1515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O36"/>
+      <selection sqref="A1:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,765 +1528,774 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+    </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>79</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="A13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="A14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
+      <c r="A18" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
+      <c r="A19" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>27</v>
+      <c r="A20" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
+      <c r="A21" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="A24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="A25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="A26" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="A27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
+      <c r="A30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
+      <c r="A31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-    </row>
-    <row r="33" spans="1:16" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-    </row>
-    <row r="34" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="11"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="31"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=PE"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=PE"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=PE"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/peru"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/173/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://www.mef.gob.pe/es/por-instrumento/ley/6055-ley-n-27506/file"/>
-    <hyperlink ref="A14" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/file/Gestion Social/ds042-2003.pdf"/>
-    <hyperlink ref="A19" r:id="rId9" display="https://andina.pe/agencia/noticia-oferta-proveedores-y-servicios-mineros-peruanos-genera-interes-australianos-840834.aspx"/>
-    <hyperlink ref="A20" r:id="rId10" display="https://busquedas.elperuano.pe/normaslegales/decreto-supremo-que-aprueba-el-reglamento-de-procedimientos-decreto-supremo-no-020-2020-em-1876188-1/"/>
-    <hyperlink ref="A21" r:id="rId11" display="https://www.thefiscaltimes.com/latestnews/2016/06/24/Kuczynski-wants-Peru-become-metals-refining-hub-finance-minister?utm_content=buffer652a8&amp;utm_medium=social&amp;utm_source=twitter.com&amp;utm_campaign=buffer"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://publications.iadb.org/publications/english/document/Beyond-Extraction-Economic-Opportunities-in-Mining-Communities-Case-Study-of-a-Regional-Local-Economic-Development-Program-in-Brazil-Chile-and-Peru-2016-2020.pdf"/>
-    <hyperlink ref="A26" r:id="rId13" display="https://www.oecd.org/trade/topics/trade-in-raw-materials/documents/trade-raw-materials-peru-country-note.pdf"/>
-    <hyperlink ref="A31" r:id="rId14" display="https://publications.iadb.org/publications/english/document/Beyond-Extraction-Economic-Opportunities-in-Mining-Communities-Case-Study-of-a-Regional-Local-Economic-Development-Program-in-Brazil-Chile-and-Peru-2016-2020.pdf"/>
-    <hyperlink ref="A33" r:id="rId15" display="https://propuestaciudadana.org.pe/wp-content/uploads/2020/04/Cl%C3%BAster-minero-en-el-sur-peruano.-Perspectivas-en-relaci%C3%B3n-con-el-desarrollo-regional.pdf"/>
-    <hyperlink ref="A35" r:id="rId16" display="http://www.regionmoquegua.gob.pe/mesa-de-dialogo/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=PE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=PE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=PE" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/peru" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/173/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A35" r:id="rId16" display="http://www.regionmoquegua.gob.pe/mesa-de-dialogo/" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{FC4A0FB5-7F4C-4600-BE63-14EDD8773716}"/>
+    <hyperlink ref="A25" r:id="rId18" display="Oswaldo Molina (2018) – Innovation in an Unfavorable Context: Local Mining Suppliers in Peru  (Paywall)" xr:uid="{8C2F5ACA-560E-4882-BD30-A02720EF7753}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{42EB0901-5C49-4F65-BDC6-1DA0C1E8BD9E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId20"/>
   <webPublishItems count="1">
-    <webPublishItem id="28324" divId="Peru_Workbook_28324" sourceType="range" sourceRef="A1:O36" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Peru\Peru_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="22946" divId="Peru_Workbook_22946" sourceType="range" sourceRef="A1:P36" destinationFile="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Peru\Peru_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>